--- a/Organization of production and enterprise management/LAB_4/04_14_Shymsky.xlsx
+++ b/Organization of production and enterprise management/LAB_4/04_14_Shymsky.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BadLiar\Documents\Организация производства и управление предпиятием\Lab_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6A7648-9055-4E00-9D15-55A04B1AAC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36A16CD-1DB9-4286-A67F-F988AB0EF466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8244" yWindow="1260" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1121,8 +1121,8 @@
         <v>25</v>
       </c>
       <c r="C22" s="3">
-        <f>C14*C4</f>
-        <v>252</v>
+        <f>C14*C4*8</f>
+        <v>2016</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
@@ -1130,8 +1130,8 @@
         <v>24</v>
       </c>
       <c r="C23" s="3">
-        <f>(C14+C15+C16)*C4</f>
-        <v>378</v>
+        <f>(C14*8+C15*4+C16*12)*30</f>
+        <v>3840</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="C24" s="3">
         <f>(C6*C9*C22)/(C4*C5)</f>
-        <v>43.199999999999996</v>
+        <v>345.59999999999997</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="C25" s="3">
         <f>(C6*C10*C23)/(C4*C5)</f>
-        <v>21.599999999999998</v>
+        <v>219.42857142857142</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C26" s="3">
         <f>C24-C25</f>
-        <v>21.599999999999998</v>
+        <v>126.17142857142855</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C27" s="3">
         <f>C26*(1+C8/100)</f>
-        <v>26.999999999999996</v>
+        <v>157.71428571428569</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C28" s="7">
         <f>12*C27*(1+C7/100)*(1+(34+0.6)/100)</f>
-        <v>523.32479999999987</v>
+        <v>3056.8813714285711</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -1229,8 +1229,8 @@
         <v>23</v>
       </c>
       <c r="C29" s="7">
-        <f>24*C11*((12+5+1)/24)*(B18*C18+B19*C19+B20*C20+B21*C21)</f>
-        <v>4664.7</v>
+        <f>24*C11*((C14*8+C15*4+C16*12)/24)*(B18*C18+B19*C19+B20*C20+B21*C21)</f>
+        <v>33171.199999999997</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -1253,8 +1253,8 @@
         <v>21</v>
       </c>
       <c r="C30" s="7">
-        <f>C5*C11*((12)/8)*(B18*C18+B19*C19+B20*C20+B21*C21)</f>
-        <v>3109.7999999999997</v>
+        <f>C5*(C11-C12)*C14*(B18*C18+B19*C19+B20*C20+B21*C21)</f>
+        <v>17108.16</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="C31" s="7">
         <f>C29-C30</f>
-        <v>1554.9</v>
+        <v>16063.039999999997</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="C32" s="7">
         <f>C28+C31</f>
-        <v>2078.2248</v>
+        <v>19119.921371428569</v>
       </c>
     </row>
   </sheetData>
